--- a/xlsx/新能源汽车_intext.xlsx
+++ b/xlsx/新能源汽车_intext.xlsx
@@ -29,7 +29,7 @@
     <t>汽车</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_新能源汽车</t>
+    <t>政策_政策_混合动力车辆_新能源汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E6%B2%B9</t>
@@ -47,31 +47,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E4%BF%9D</t>
   </si>
   <si>
-    <t>環保</t>
+    <t>环保</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>石油危機</t>
+    <t>石油危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%87%83%E6%A9%9F</t>
   </si>
   <si>
-    <t>內燃機</t>
+    <t>内燃机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%BB%8C%E9%9B%BB%E8%BB%8A</t>
   </si>
   <si>
-    <t>無軌電車</t>
+    <t>无轨电车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>電力</t>
+    <t>电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%BA%BF%E4%BE%9B%E7%94%B5</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9T%E5%9E%8B%E8%BB%8A</t>
   </si>
   <si>
-    <t>福特T型車</t>
+    <t>福特T型车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%86%87</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB%E6%B0%A3</t>
   </si>
   <si>
-    <t>氫氣</t>
+    <t>氢气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E7%B8%AE%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>壓縮天然氣</t>
+    <t>压缩天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E5%8C%96%E7%9F%B3%E6%B2%B9%E6%B0%94</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0</t>
   </si>
   <si>
-    <t>二戰</t>
+    <t>二战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8A%A8%E5%8A%9B</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E6%99%AE%E9%8A%B3%E6%96%AF</t>
   </si>
   <si>
-    <t>豐田普銳斯</t>
+    <t>丰田普锐斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%83%BD</t>
@@ -173,19 +173,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%9B%9B%E4%BB%A3%E5%8F%8D%E6%87%89%E5%A0%86</t>
   </si>
   <si>
-    <t>第四代反應堆</t>
+    <t>第四代反应堆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD</t>
   </si>
   <si>
-    <t>太陽能</t>
+    <t>太阳能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A2%B0%E8%83%BD</t>
   </si>
   <si>
-    <t>機械能</t>
+    <t>机械能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%8B%E7%BC%A9%E7%A9%BA%E6%B0%94</t>
@@ -197,19 +197,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%A2%9D</t>
   </si>
   <si>
-    <t>發條</t>
+    <t>发条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%BC%AA</t>
   </si>
   <si>
-    <t>飛輪</t>
+    <t>飞轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B1%BD%E6%A9%9F</t>
   </si>
   <si>
-    <t>蒸汽機</t>
+    <t>蒸汽机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E6%9E%97%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
